--- a/311_Statistik_Keketatan_Prodi.xlsx
+++ b/311_Statistik_Keketatan_Prodi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\02_SNBT\23snbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D274662-AA8E-4FE7-95CC-88CAC85BEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654CAD0-3FD5-4AA4-AB57-3BB4F5D719C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>KEDOKTERAN</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>jenjang</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -2320,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4889,9 +4892,8 @@
       <c r="C49" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(B49,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S2</v>
+      <c r="D49" t="s">
+        <v>65</v>
       </c>
       <c r="E49">
         <v>103</v>

--- a/311_Statistik_Keketatan_Prodi.xlsx
+++ b/311_Statistik_Keketatan_Prodi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\02_SNBT\23snbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654CAD0-3FD5-4AA4-AB57-3BB4F5D719C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894CC36-44DA-4905-9F74-A813FEDEC357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>KEDOKTERAN</t>
   </si>
@@ -236,6 +233,12 @@
   </si>
   <si>
     <t>S1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK</t>
   </si>
 </sst>
 </file>
@@ -346,1692 +349,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FAK"/>
-      <sheetName val="PRODI"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="PRODI_2019"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2">
-            <v>311024</v>
-          </cell>
-          <cell r="D2">
-            <v>3112017</v>
-          </cell>
-          <cell r="E2">
-            <v>1111</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Hukum (S1)</v>
-          </cell>
-          <cell r="G2">
-            <v>1111</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>311030</v>
-          </cell>
-          <cell r="D3">
-            <v>3112072</v>
-          </cell>
-          <cell r="E3">
-            <v>2221</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>Pendidikan Non Formal</v>
-          </cell>
-          <cell r="G3">
-            <v>2221</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>311031</v>
-          </cell>
-          <cell r="D4">
-            <v>3112087</v>
-          </cell>
-          <cell r="E4">
-            <v>2222</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Pendidikan Bahasa Indonesia (S1)</v>
-          </cell>
-          <cell r="G4">
-            <v>2222</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>311032</v>
-          </cell>
-          <cell r="D5">
-            <v>3112095</v>
-          </cell>
-          <cell r="E5">
-            <v>2223</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>Pendidikan Bahasa Inggris</v>
-          </cell>
-          <cell r="G5">
-            <v>2223</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>311010</v>
-          </cell>
-          <cell r="D6">
-            <v>3111103</v>
-          </cell>
-          <cell r="E6">
-            <v>2224</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>Pendidikan Biologi</v>
-          </cell>
-          <cell r="G6">
-            <v>2224</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>311011</v>
-          </cell>
-          <cell r="D7">
-            <v>3111111</v>
-          </cell>
-          <cell r="E7">
-            <v>2225</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>Pendidikan Matematika</v>
-          </cell>
-          <cell r="G7">
-            <v>2225</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v/>
-          </cell>
-          <cell r="E8">
-            <v>2226</v>
-          </cell>
-          <cell r="F8" t="str">
-            <v>Pendidikan Guru Taman Kanak-Kanak</v>
-          </cell>
-          <cell r="G8">
-            <v>2226</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>311033</v>
-          </cell>
-          <cell r="D9">
-            <v>3112106</v>
-          </cell>
-          <cell r="E9">
-            <v>2227</v>
-          </cell>
-          <cell r="F9" t="str">
-            <v>Pendidikan Guru Sekolah Dasar</v>
-          </cell>
-          <cell r="G9">
-            <v>2227</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>311034</v>
-          </cell>
-          <cell r="D10">
-            <v>3112114</v>
-          </cell>
-          <cell r="E10">
-            <v>2228</v>
-          </cell>
-          <cell r="F10" t="str">
-            <v>Pendidikan Guru Pendidikan Anak Usia Dini</v>
-          </cell>
-          <cell r="G10">
-            <v>2228</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>311014</v>
-          </cell>
-          <cell r="D11">
-            <v>3111142</v>
-          </cell>
-          <cell r="E11">
-            <v>2280</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>Pendidikan Fisika</v>
-          </cell>
-          <cell r="G11">
-            <v>2280</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>311016</v>
-          </cell>
-          <cell r="D12">
-            <v>3111165</v>
-          </cell>
-          <cell r="E12">
-            <v>2281</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>Pendidikan IPA</v>
-          </cell>
-          <cell r="G12">
-            <v>2281</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>311015</v>
-          </cell>
-          <cell r="D13">
-            <v>3111157</v>
-          </cell>
-          <cell r="E13">
-            <v>2282</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>Pendidikan Kimia</v>
-          </cell>
-          <cell r="G13">
-            <v>2282</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>311012</v>
-          </cell>
-          <cell r="D14">
-            <v>3111126</v>
-          </cell>
-          <cell r="E14">
-            <v>2283</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>Pendidikan Vokasional Teknik Elektro</v>
-          </cell>
-          <cell r="G14">
-            <v>2283</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>311013</v>
-          </cell>
-          <cell r="D15">
-            <v>3111134</v>
-          </cell>
-          <cell r="E15">
-            <v>2284</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>Pendidikan Vokasional Teknik Mesin</v>
-          </cell>
-          <cell r="G15">
-            <v>2284</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>311040</v>
-          </cell>
-          <cell r="D16">
-            <v>3112176</v>
-          </cell>
-          <cell r="E16">
-            <v>2285</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>Bimbingan dan Konseling</v>
-          </cell>
-          <cell r="G16">
-            <v>2285</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>311038</v>
-          </cell>
-          <cell r="D17">
-            <v>3112153</v>
-          </cell>
-          <cell r="E17">
-            <v>2286</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>Pendidikan Pancasila dan Kewarganegaraan</v>
-          </cell>
-          <cell r="G17">
-            <v>2286</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>311041</v>
-          </cell>
-          <cell r="D18">
-            <v>3112184</v>
-          </cell>
-          <cell r="E18">
-            <v>2287</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>Pendidikan Khusus</v>
-          </cell>
-          <cell r="G18">
-            <v>2287</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I18" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>311037</v>
-          </cell>
-          <cell r="D19">
-            <v>3112145</v>
-          </cell>
-          <cell r="E19">
-            <v>2288</v>
-          </cell>
-          <cell r="F19" t="str">
-            <v>Pendidikan Sejarah</v>
-          </cell>
-          <cell r="G19">
-            <v>2288</v>
-          </cell>
-          <cell r="H19" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I19" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>311039</v>
-          </cell>
-          <cell r="D20">
-            <v>3112161</v>
-          </cell>
-          <cell r="E20">
-            <v>2289</v>
-          </cell>
-          <cell r="F20" t="str">
-            <v>Pendidikan Seni Pertunjukan</v>
-          </cell>
-          <cell r="G20">
-            <v>2289</v>
-          </cell>
-          <cell r="H20" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I20" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>311036</v>
-          </cell>
-          <cell r="D21">
-            <v>3112137</v>
-          </cell>
-          <cell r="E21">
-            <v>2290</v>
-          </cell>
-          <cell r="F21" t="str">
-            <v>Pendidikan Sosiologi</v>
-          </cell>
-          <cell r="G21">
-            <v>2290</v>
-          </cell>
-          <cell r="H21" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I21" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v/>
-          </cell>
-          <cell r="E22">
-            <v>3301</v>
-          </cell>
-          <cell r="F22" t="str">
-            <v>Teknik Informatika</v>
-          </cell>
-          <cell r="G22">
-            <v>3301</v>
-          </cell>
-          <cell r="H22" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I22" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>311001</v>
-          </cell>
-          <cell r="D23">
-            <v>3111014</v>
-          </cell>
-          <cell r="E23">
-            <v>3331</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>Teknik Mesin</v>
-          </cell>
-          <cell r="G23">
-            <v>3331</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I23" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>311002</v>
-          </cell>
-          <cell r="D24">
-            <v>3111022</v>
-          </cell>
-          <cell r="E24">
-            <v>3332</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>Teknik Elektro</v>
-          </cell>
-          <cell r="G24">
-            <v>3332</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I24" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>311003</v>
-          </cell>
-          <cell r="D25">
-            <v>3111037</v>
-          </cell>
-          <cell r="E25">
-            <v>3333</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>Teknik Industri</v>
-          </cell>
-          <cell r="G25">
-            <v>3333</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I25" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>311004</v>
-          </cell>
-          <cell r="D26">
-            <v>3111045</v>
-          </cell>
-          <cell r="E26">
-            <v>3334</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>Teknik Metalurgi</v>
-          </cell>
-          <cell r="G26">
-            <v>3334</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I26" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>311005</v>
-          </cell>
-          <cell r="D27">
-            <v>3111053</v>
-          </cell>
-          <cell r="E27">
-            <v>3335</v>
-          </cell>
-          <cell r="F27" t="str">
-            <v>Teknik Kimia</v>
-          </cell>
-          <cell r="G27">
-            <v>3335</v>
-          </cell>
-          <cell r="H27" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I27" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>311006</v>
-          </cell>
-          <cell r="D28">
-            <v>3111061</v>
-          </cell>
-          <cell r="E28">
-            <v>3336</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>Teknik Sipil</v>
-          </cell>
-          <cell r="G28">
-            <v>3336</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>311021</v>
-          </cell>
-          <cell r="D29">
-            <v>3111215</v>
-          </cell>
-          <cell r="E29">
-            <v>3337</v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>Informatika</v>
-          </cell>
-          <cell r="G29">
-            <v>3337</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I29" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>311007</v>
-          </cell>
-          <cell r="D30">
-            <v>3111076</v>
-          </cell>
-          <cell r="E30">
-            <v>4441</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>Agribisnis</v>
-          </cell>
-          <cell r="G30">
-            <v>4441</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I30" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>311008</v>
-          </cell>
-          <cell r="D31">
-            <v>3111084</v>
-          </cell>
-          <cell r="E31">
-            <v>4442</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>Agroekoteknologi</v>
-          </cell>
-          <cell r="G31">
-            <v>4442</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I31" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>311009</v>
-          </cell>
-          <cell r="D32">
-            <v>3111092</v>
-          </cell>
-          <cell r="E32">
-            <v>4443</v>
-          </cell>
-          <cell r="F32" t="str">
-            <v>Ilmu Perikanan</v>
-          </cell>
-          <cell r="G32">
-            <v>4443</v>
-          </cell>
-          <cell r="H32" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>311017</v>
-          </cell>
-          <cell r="D33">
-            <v>3111173</v>
-          </cell>
-          <cell r="E33">
-            <v>4444</v>
-          </cell>
-          <cell r="F33" t="str">
-            <v>Teknologi Pangan</v>
-          </cell>
-          <cell r="G33">
-            <v>4444</v>
-          </cell>
-          <cell r="H33" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I33" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>311023</v>
-          </cell>
-          <cell r="D34">
-            <v>3111231</v>
-          </cell>
-          <cell r="E34">
-            <v>4445</v>
-          </cell>
-          <cell r="F34" t="str">
-            <v>Ilmu Kelautan</v>
-          </cell>
-          <cell r="G34">
-            <v>4445</v>
-          </cell>
-          <cell r="H34" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I34" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>311049</v>
-          </cell>
-          <cell r="E35">
-            <v>4446</v>
-          </cell>
-          <cell r="F35" t="str">
-            <v>Peternakan</v>
-          </cell>
-          <cell r="G35">
-            <v>4446</v>
-          </cell>
-          <cell r="H35" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>311044</v>
-          </cell>
-          <cell r="E36">
-            <v>5501</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>Akuntansi D3</v>
-          </cell>
-          <cell r="G36">
-            <v>5501</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I36" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>311047</v>
-          </cell>
-          <cell r="E37">
-            <v>5502</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>Manajemen Pemasaran (D3)</v>
-          </cell>
-          <cell r="G37">
-            <v>5502</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I37" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>311048</v>
-          </cell>
-          <cell r="E38">
-            <v>5503</v>
-          </cell>
-          <cell r="F38" t="str">
-            <v>Perpajakan</v>
-          </cell>
-          <cell r="G38">
-            <v>5503</v>
-          </cell>
-          <cell r="H38" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I38" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>311045</v>
-          </cell>
-          <cell r="E39">
-            <v>5504</v>
-          </cell>
-          <cell r="F39" t="str">
-            <v>Perbankan dan Keuangan</v>
-          </cell>
-          <cell r="G39">
-            <v>5504</v>
-          </cell>
-          <cell r="H39" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I39" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>311025</v>
-          </cell>
-          <cell r="D40">
-            <v>3112025</v>
-          </cell>
-          <cell r="E40">
-            <v>5551</v>
-          </cell>
-          <cell r="F40" t="str">
-            <v>Manajemen</v>
-          </cell>
-          <cell r="G40">
-            <v>5551</v>
-          </cell>
-          <cell r="H40" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I40" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>311026</v>
-          </cell>
-          <cell r="D41">
-            <v>3112033</v>
-          </cell>
-          <cell r="E41">
-            <v>5552</v>
-          </cell>
-          <cell r="F41" t="str">
-            <v>Akuntansi</v>
-          </cell>
-          <cell r="G41">
-            <v>5552</v>
-          </cell>
-          <cell r="H41" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I41" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>311027</v>
-          </cell>
-          <cell r="D42">
-            <v>3112041</v>
-          </cell>
-          <cell r="E42">
-            <v>5553</v>
-          </cell>
-          <cell r="F42" t="str">
-            <v>Ilmu Ekonomi Pembangunan</v>
-          </cell>
-          <cell r="G42">
-            <v>5553</v>
-          </cell>
-          <cell r="H42" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I42" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>311035</v>
-          </cell>
-          <cell r="D43">
-            <v>3112122</v>
-          </cell>
-          <cell r="E43">
-            <v>5554</v>
-          </cell>
-          <cell r="F43" t="str">
-            <v>Ekonomi Syariah</v>
-          </cell>
-          <cell r="G43">
-            <v>5554</v>
-          </cell>
-          <cell r="H43" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I43" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>311028</v>
-          </cell>
-          <cell r="D44">
-            <v>3112056</v>
-          </cell>
-          <cell r="E44">
-            <v>6661</v>
-          </cell>
-          <cell r="F44" t="str">
-            <v>Administrasi Publik</v>
-          </cell>
-          <cell r="G44">
-            <v>6661</v>
-          </cell>
-          <cell r="H44" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I44" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>311029</v>
-          </cell>
-          <cell r="D45">
-            <v>3112064</v>
-          </cell>
-          <cell r="E45">
-            <v>6662</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>Ilmu Komunikasi</v>
-          </cell>
-          <cell r="G45">
-            <v>6662</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I45" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>311042</v>
-          </cell>
-          <cell r="D46">
-            <v>3112192</v>
-          </cell>
-          <cell r="E46">
-            <v>6670</v>
-          </cell>
-          <cell r="F46" t="str">
-            <v>Ilmu Pemerintahan</v>
-          </cell>
-          <cell r="G46">
-            <v>6670</v>
-          </cell>
-          <cell r="H46" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I46" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v/>
-          </cell>
-          <cell r="E47">
-            <v>7771</v>
-          </cell>
-          <cell r="F47" t="str">
-            <v>Pendidikan Bahasa Indonesia (S2)</v>
-          </cell>
-          <cell r="G47">
-            <v>7771</v>
-          </cell>
-          <cell r="H47" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I47" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v/>
-          </cell>
-          <cell r="E48">
-            <v>7772</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>Teknologi Pendidikan (S2)</v>
-          </cell>
-          <cell r="G48">
-            <v>7772</v>
-          </cell>
-          <cell r="H48" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I48" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v/>
-          </cell>
-          <cell r="E49">
-            <v>7773</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>Hukum (S2)</v>
-          </cell>
-          <cell r="G49">
-            <v>7773</v>
-          </cell>
-          <cell r="H49" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I49" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v/>
-          </cell>
-          <cell r="E50">
-            <v>7774</v>
-          </cell>
-          <cell r="F50" t="str">
-            <v>Magister Akuntansi</v>
-          </cell>
-          <cell r="G50">
-            <v>7774</v>
-          </cell>
-          <cell r="H50" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I50" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v/>
-          </cell>
-          <cell r="E51">
-            <v>7775</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>Magister Administrasi Publik</v>
-          </cell>
-          <cell r="G51">
-            <v>7775</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I51" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v/>
-          </cell>
-          <cell r="E52">
-            <v>7776</v>
-          </cell>
-          <cell r="F52" t="str">
-            <v>Magister Manajemen</v>
-          </cell>
-          <cell r="G52">
-            <v>7776</v>
-          </cell>
-          <cell r="H52" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I52" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>7777</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>Pendidikan Bahasa Inggris</v>
-          </cell>
-          <cell r="G53">
-            <v>7777</v>
-          </cell>
-          <cell r="H53" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I53" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v/>
-          </cell>
-          <cell r="E54">
-            <v>7778</v>
-          </cell>
-          <cell r="F54" t="str">
-            <v>Pendidikan Matematika S2</v>
-          </cell>
-          <cell r="G54">
-            <v>7778</v>
-          </cell>
-          <cell r="H54" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I54" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v/>
-          </cell>
-          <cell r="E55">
-            <v>7779</v>
-          </cell>
-          <cell r="F55" t="str">
-            <v>Ilmu Pertanian</v>
-          </cell>
-          <cell r="G55">
-            <v>7779</v>
-          </cell>
-          <cell r="H55" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I55" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v/>
-          </cell>
-          <cell r="E56">
-            <v>7780</v>
-          </cell>
-          <cell r="F56" t="str">
-            <v>Teknik Kimia (S2)</v>
-          </cell>
-          <cell r="G56">
-            <v>7780</v>
-          </cell>
-          <cell r="H56" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I56" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v/>
-          </cell>
-          <cell r="E57">
-            <v>7781</v>
-          </cell>
-          <cell r="F57" t="str">
-            <v>Ilmu Komunikasi (S2)</v>
-          </cell>
-          <cell r="G57">
-            <v>7781</v>
-          </cell>
-          <cell r="H57" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I57" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v/>
-          </cell>
-          <cell r="E58">
-            <v>7782</v>
-          </cell>
-          <cell r="F58" t="str">
-            <v>Pendidikan (S3)</v>
-          </cell>
-          <cell r="G58">
-            <v>7782</v>
-          </cell>
-          <cell r="H58" t="str">
-            <v>Strata 3 - Reguler</v>
-          </cell>
-          <cell r="I58" t="str">
-            <v>S3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>311020</v>
-          </cell>
-          <cell r="D59">
-            <v>3111207</v>
-          </cell>
-          <cell r="E59">
-            <v>8881</v>
-          </cell>
-          <cell r="F59" t="str">
-            <v>Kedokteran</v>
-          </cell>
-          <cell r="G59">
-            <v>8881</v>
-          </cell>
-          <cell r="H59" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I59" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>311019</v>
-          </cell>
-          <cell r="D60">
-            <v>3111196</v>
-          </cell>
-          <cell r="E60">
-            <v>8882</v>
-          </cell>
-          <cell r="F60" t="str">
-            <v>Gizi</v>
-          </cell>
-          <cell r="G60">
-            <v>8882</v>
-          </cell>
-          <cell r="H60" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I60" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>311018</v>
-          </cell>
-          <cell r="D61">
-            <v>3111181</v>
-          </cell>
-          <cell r="E61">
-            <v>8883</v>
-          </cell>
-          <cell r="F61" t="str">
-            <v>Ilmu Keolahragaan</v>
-          </cell>
-          <cell r="G61">
-            <v>8883</v>
-          </cell>
-          <cell r="H61" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I61" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>311022</v>
-          </cell>
-          <cell r="D62">
-            <v>3111223</v>
-          </cell>
-          <cell r="E62">
-            <v>8884</v>
-          </cell>
-          <cell r="F62" t="str">
-            <v>Keperawatan</v>
-          </cell>
-          <cell r="G62">
-            <v>8884</v>
-          </cell>
-          <cell r="H62" t="str">
-            <v>Strata 1 - Reguler</v>
-          </cell>
-          <cell r="I62" t="str">
-            <v>S1</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v/>
-          </cell>
-          <cell r="E63">
-            <v>223701</v>
-          </cell>
-          <cell r="F63" t="str">
-            <v>PPG Fisika</v>
-          </cell>
-          <cell r="G63">
-            <v>223701</v>
-          </cell>
-          <cell r="H63" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I63" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64" t="str">
-            <v/>
-          </cell>
-          <cell r="E64">
-            <v>223702</v>
-          </cell>
-          <cell r="F64" t="str">
-            <v>PPG Kimia</v>
-          </cell>
-          <cell r="G64">
-            <v>223702</v>
-          </cell>
-          <cell r="H64" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I64" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65" t="str">
-            <v/>
-          </cell>
-          <cell r="E65">
-            <v>223703</v>
-          </cell>
-          <cell r="F65" t="str">
-            <v>PPG Bahasa Indonesia</v>
-          </cell>
-          <cell r="G65">
-            <v>223703</v>
-          </cell>
-          <cell r="H65" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I65" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66" t="str">
-            <v/>
-          </cell>
-          <cell r="E66">
-            <v>223704</v>
-          </cell>
-          <cell r="F66" t="str">
-            <v>PPG Bahasa Inggris</v>
-          </cell>
-          <cell r="G66">
-            <v>223704</v>
-          </cell>
-          <cell r="H66" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I66" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67" t="str">
-            <v/>
-          </cell>
-          <cell r="E67">
-            <v>223705</v>
-          </cell>
-          <cell r="F67" t="str">
-            <v>PPG Biologi</v>
-          </cell>
-          <cell r="G67">
-            <v>223705</v>
-          </cell>
-          <cell r="H67" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I67" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68" t="str">
-            <v/>
-          </cell>
-          <cell r="E68">
-            <v>223706</v>
-          </cell>
-          <cell r="F68" t="str">
-            <v>PPG Matematika</v>
-          </cell>
-          <cell r="G68">
-            <v>223706</v>
-          </cell>
-          <cell r="H68" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I68" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69" t="str">
-            <v/>
-          </cell>
-          <cell r="E69">
-            <v>223707</v>
-          </cell>
-          <cell r="F69" t="str">
-            <v>PPG Guru Sekolah Dasar</v>
-          </cell>
-          <cell r="G69">
-            <v>223707</v>
-          </cell>
-          <cell r="H69" t="str">
-            <v>Profesi - Reguler</v>
-          </cell>
-          <cell r="I69" t="str">
-            <v>Profesi</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>311043</v>
-          </cell>
-          <cell r="E70">
-            <v>8801</v>
-          </cell>
-          <cell r="F70" t="str">
-            <v>Keperawatan D3</v>
-          </cell>
-          <cell r="G70">
-            <v>8801</v>
-          </cell>
-          <cell r="H70" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I70" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>311043</v>
-          </cell>
-          <cell r="E71">
-            <v>3440</v>
-          </cell>
-          <cell r="F71" t="str">
-            <v>Keperawatan D3</v>
-          </cell>
-          <cell r="G71">
-            <v>3440</v>
-          </cell>
-          <cell r="H71" t="str">
-            <v>Diploma 3 - Reguler</v>
-          </cell>
-          <cell r="I71" t="str">
-            <v>D3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72" t="str">
-            <v/>
-          </cell>
-          <cell r="E72">
-            <v>7783</v>
-          </cell>
-          <cell r="F72" t="str">
-            <v>Ilmu Akuntansi Program Doktor</v>
-          </cell>
-          <cell r="G72">
-            <v>7783</v>
-          </cell>
-          <cell r="H72" t="str">
-            <v>Strata 3 - Reguler</v>
-          </cell>
-          <cell r="I72" t="str">
-            <v>S3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73" t="str">
-            <v/>
-          </cell>
-          <cell r="E73">
-            <v>7784</v>
-          </cell>
-          <cell r="F73" t="str">
-            <v>Pendidikan Dasar</v>
-          </cell>
-          <cell r="G73">
-            <v>7784</v>
-          </cell>
-          <cell r="H73" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I73" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74" t="str">
-            <v/>
-          </cell>
-          <cell r="E74">
-            <v>7785</v>
-          </cell>
-          <cell r="F74" t="str">
-            <v>ILMU PERTANIAN (S3)</v>
-          </cell>
-          <cell r="G74">
-            <v>7785</v>
-          </cell>
-          <cell r="H74" t="str">
-            <v>Strata 3 - Reguler</v>
-          </cell>
-          <cell r="I74" t="str">
-            <v>S3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75" t="str">
-            <v/>
-          </cell>
-          <cell r="E75">
-            <v>7786</v>
-          </cell>
-          <cell r="F75" t="str">
-            <v>MAGISTER EKONOMI</v>
-          </cell>
-          <cell r="G75">
-            <v>7786</v>
-          </cell>
-          <cell r="H75" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I75" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76" t="str">
-            <v/>
-          </cell>
-          <cell r="E76">
-            <v>7787</v>
-          </cell>
-          <cell r="F76" t="str">
-            <v>Teknik Industri dan Manajemen</v>
-          </cell>
-          <cell r="G76">
-            <v>7787</v>
-          </cell>
-          <cell r="H76" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I76" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77" t="str">
-            <v/>
-          </cell>
-          <cell r="E77">
-            <v>7788</v>
-          </cell>
-          <cell r="F77" t="str">
-            <v>Pendidikan Vokasi Keteknikan</v>
-          </cell>
-          <cell r="G77">
-            <v>7788</v>
-          </cell>
-          <cell r="H77" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I77" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78" t="str">
-            <v/>
-          </cell>
-          <cell r="E78">
-            <v>7789</v>
-          </cell>
-          <cell r="F78" t="str">
-            <v>Studi Lingkungan</v>
-          </cell>
-          <cell r="G78">
-            <v>7789</v>
-          </cell>
-          <cell r="H78" t="str">
-            <v>Strata 2 - Reguler</v>
-          </cell>
-          <cell r="I78" t="str">
-            <v>S2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,7 +641,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,9 +718,8 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(B2,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D2" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>346</v>
@@ -2412,35 +728,30 @@
         <v>92</v>
       </c>
       <c r="G2" s="3">
-        <f>ROUND(F2/E2*100,2)</f>
         <v>26.59</v>
       </c>
       <c r="H2" s="2">
         <v>152</v>
       </c>
       <c r="I2" s="3">
-        <f>ROUND(H2/E2*100,2)</f>
         <v>43.93</v>
       </c>
       <c r="J2" s="2">
         <v>37</v>
       </c>
       <c r="K2" s="3">
-        <f>ROUND(J2/F2*100,2)</f>
         <v>40.22</v>
       </c>
       <c r="L2" s="2">
         <v>194</v>
       </c>
       <c r="M2" s="3">
-        <f>100-I2</f>
         <v>56.07</v>
       </c>
       <c r="N2" s="2">
         <v>55</v>
       </c>
       <c r="O2" s="3">
-        <f>100-K2</f>
         <v>59.78</v>
       </c>
     </row>
@@ -2454,9 +765,8 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(B3,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D3" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>401</v>
@@ -2465,35 +775,30 @@
         <v>89</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G49" si="0">ROUND(F3/E3*100,2)</f>
         <v>22.19</v>
       </c>
       <c r="H3" s="2">
         <v>204</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I49" si="1">ROUND(H3/E3*100,2)</f>
         <v>50.87</v>
       </c>
       <c r="J3" s="2">
         <v>46</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K49" si="2">ROUND(J3/F3*100,2)</f>
         <v>51.69</v>
       </c>
       <c r="L3" s="2">
         <v>197</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M49" si="3">100-I3</f>
         <v>49.13</v>
       </c>
       <c r="N3" s="2">
         <v>43</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O49" si="4">100-K3</f>
         <v>48.31</v>
       </c>
     </row>
@@ -2507,9 +812,8 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(B4,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D4" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>769</v>
@@ -2518,35 +822,30 @@
         <v>88</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>11.44</v>
       </c>
       <c r="H4" s="2">
         <v>379</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
         <v>49.28</v>
       </c>
       <c r="J4" s="2">
         <v>41</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
         <v>46.59</v>
       </c>
       <c r="L4" s="2">
         <v>390</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="3"/>
         <v>50.72</v>
       </c>
       <c r="N4" s="2">
         <v>47</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="4"/>
         <v>53.41</v>
       </c>
     </row>
@@ -2560,9 +859,8 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(B5,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D5" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>406</v>
@@ -2571,35 +869,30 @@
         <v>89</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
         <v>21.92</v>
       </c>
       <c r="H5" s="2">
         <v>148</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
         <v>36.450000000000003</v>
       </c>
       <c r="J5" s="2">
         <v>31</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
         <v>34.83</v>
       </c>
       <c r="L5" s="2">
         <v>258</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="3"/>
         <v>63.55</v>
       </c>
       <c r="N5" s="2">
         <v>58</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="4"/>
         <v>65.17</v>
       </c>
     </row>
@@ -2613,9 +906,8 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(B6,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D6" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <v>321</v>
@@ -2624,35 +916,30 @@
         <v>89</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
         <v>27.73</v>
       </c>
       <c r="H6" s="2">
         <v>141</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
         <v>43.93</v>
       </c>
       <c r="J6" s="2">
         <v>36</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
         <v>40.450000000000003</v>
       </c>
       <c r="L6" s="2">
         <v>180</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="3"/>
         <v>56.07</v>
       </c>
       <c r="N6" s="2">
         <v>53</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="4"/>
         <v>59.55</v>
       </c>
     </row>
@@ -2666,9 +953,8 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(B7,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D7" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>475</v>
@@ -2677,35 +963,30 @@
         <v>90</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
         <v>18.95</v>
       </c>
       <c r="H7" s="2">
         <v>206</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
         <v>43.37</v>
       </c>
       <c r="J7" s="2">
         <v>39</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
         <v>43.33</v>
       </c>
       <c r="L7" s="2">
         <v>269</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="3"/>
         <v>56.63</v>
       </c>
       <c r="N7" s="2">
         <v>51</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="4"/>
         <v>56.67</v>
       </c>
     </row>
@@ -2719,9 +1000,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(B8,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D8" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>412</v>
@@ -2730,35 +1010,30 @@
         <v>160</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
         <v>38.83</v>
       </c>
       <c r="H8" s="2">
         <v>162</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
         <v>39.32</v>
       </c>
       <c r="J8" s="2">
         <v>63</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
         <v>39.380000000000003</v>
       </c>
       <c r="L8" s="2">
         <v>250</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
         <v>60.68</v>
       </c>
       <c r="N8" s="2">
         <v>97</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="4"/>
         <v>60.62</v>
       </c>
     </row>
@@ -2772,9 +1047,8 @@
       <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(B9,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D9" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="2">
         <v>337</v>
@@ -2783,35 +1057,30 @@
         <v>138</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
         <v>40.950000000000003</v>
       </c>
       <c r="H9" s="2">
         <v>123</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
         <v>36.5</v>
       </c>
       <c r="J9" s="2">
         <v>51</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
         <v>36.96</v>
       </c>
       <c r="L9" s="2">
         <v>214</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
       <c r="N9" s="2">
         <v>87</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
         <v>63.04</v>
       </c>
     </row>
@@ -2825,9 +1094,8 @@
       <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(B10,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D10" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="2">
         <v>240</v>
@@ -2836,35 +1104,30 @@
         <v>118</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
         <v>49.17</v>
       </c>
       <c r="H10" s="2">
         <v>86</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
         <v>35.83</v>
       </c>
       <c r="J10" s="2">
         <v>38</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
         <v>32.200000000000003</v>
       </c>
       <c r="L10" s="2">
         <v>154</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="3"/>
         <v>64.17</v>
       </c>
       <c r="N10" s="2">
         <v>80</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="4"/>
         <v>67.8</v>
       </c>
     </row>
@@ -2878,9 +1141,8 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(B11,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D11" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="2">
         <v>197</v>
@@ -2889,35 +1151,30 @@
         <v>92</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
         <v>46.7</v>
       </c>
       <c r="H11" s="2">
         <v>87</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
         <v>44.16</v>
       </c>
       <c r="J11" s="2">
         <v>48</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
         <v>52.17</v>
       </c>
       <c r="L11" s="2">
         <v>110</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="3"/>
         <v>55.84</v>
       </c>
       <c r="N11" s="2">
         <v>44</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="4"/>
         <v>47.83</v>
       </c>
     </row>
@@ -2931,9 +1188,8 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(B12,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D12" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>233</v>
@@ -2942,35 +1198,30 @@
         <v>92</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
         <v>39.479999999999997</v>
       </c>
       <c r="H12" s="2">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
         <v>42.92</v>
       </c>
       <c r="J12" s="2">
         <v>47</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
         <v>51.09</v>
       </c>
       <c r="L12" s="2">
         <v>133</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="3"/>
         <v>57.08</v>
       </c>
       <c r="N12" s="2">
         <v>45</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="4"/>
         <v>48.91</v>
       </c>
     </row>
@@ -2984,9 +1235,8 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(B13,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D13" t="s">
+        <v>65</v>
       </c>
       <c r="E13" s="2">
         <v>73</v>
@@ -2995,35 +1245,30 @@
         <v>45</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
         <v>61.64</v>
       </c>
       <c r="H13" s="2">
         <v>26</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
         <v>35.619999999999997</v>
       </c>
       <c r="J13" s="2">
         <v>16</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
         <v>35.56</v>
       </c>
       <c r="L13" s="2">
         <v>47</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
         <v>64.38</v>
       </c>
       <c r="N13" s="2">
         <v>29</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="4"/>
         <v>64.44</v>
       </c>
     </row>
@@ -3037,9 +1282,8 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(B14,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D14" t="s">
+        <v>65</v>
       </c>
       <c r="E14" s="2">
         <v>69</v>
@@ -3048,35 +1292,30 @@
         <v>46</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
       <c r="H14" s="2">
         <v>26</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
         <v>37.68</v>
       </c>
       <c r="J14" s="2">
         <v>23</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="L14" s="2">
         <v>43</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
         <v>62.32</v>
       </c>
       <c r="N14" s="2">
         <v>23</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -3090,9 +1329,8 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(B15,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D15" t="s">
+        <v>65</v>
       </c>
       <c r="E15" s="2">
         <v>97</v>
@@ -3101,35 +1339,30 @@
         <v>44</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
         <v>45.36</v>
       </c>
       <c r="H15" s="2">
         <v>37</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
         <v>38.14</v>
       </c>
       <c r="J15" s="2">
         <v>26</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
         <v>59.09</v>
       </c>
       <c r="L15" s="2">
         <v>60</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="3"/>
         <v>61.86</v>
       </c>
       <c r="N15" s="2">
         <v>18</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="4"/>
         <v>40.909999999999997</v>
       </c>
     </row>
@@ -3143,9 +1376,8 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(B16,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D16" t="s">
+        <v>65</v>
       </c>
       <c r="E16" s="2">
         <v>90</v>
@@ -3154,35 +1386,30 @@
         <v>68</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
         <v>75.56</v>
       </c>
       <c r="H16" s="2">
         <v>34</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
         <v>37.78</v>
       </c>
       <c r="J16" s="2">
         <v>31</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
         <v>45.59</v>
       </c>
       <c r="L16" s="2">
         <v>56</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="3"/>
         <v>62.22</v>
       </c>
       <c r="N16" s="2">
         <v>37</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="4"/>
         <v>54.41</v>
       </c>
     </row>
@@ -3196,9 +1423,8 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(B17,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D17" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="2">
         <v>126</v>
@@ -3207,35 +1433,30 @@
         <v>44</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
         <v>34.92</v>
       </c>
       <c r="H17" s="2">
         <v>45</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
         <v>35.71</v>
       </c>
       <c r="J17" s="2">
         <v>25</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
         <v>56.82</v>
       </c>
       <c r="L17" s="2">
         <v>81</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="3"/>
         <v>64.289999999999992</v>
       </c>
       <c r="N17" s="2">
         <v>19</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="4"/>
         <v>43.18</v>
       </c>
     </row>
@@ -3249,9 +1470,8 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(B18,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D18" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="2">
         <v>471</v>
@@ -3260,35 +1480,30 @@
         <v>89</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
         <v>18.899999999999999</v>
       </c>
       <c r="H18" s="2">
         <v>150</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
       <c r="J18" s="2">
         <v>35</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
         <v>39.33</v>
       </c>
       <c r="L18" s="2">
         <v>321</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="3"/>
         <v>68.150000000000006</v>
       </c>
       <c r="N18" s="2">
         <v>54</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="4"/>
         <v>60.67</v>
       </c>
     </row>
@@ -3302,9 +1517,8 @@
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(B19,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D19" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="2">
         <v>82</v>
@@ -3313,35 +1527,30 @@
         <v>23</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
         <v>28.05</v>
       </c>
       <c r="H19" s="2">
         <v>55</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
         <v>67.069999999999993</v>
       </c>
       <c r="J19" s="2">
         <v>14</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
         <v>60.87</v>
       </c>
       <c r="L19" s="2">
         <v>27</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="3"/>
         <v>32.930000000000007</v>
       </c>
       <c r="N19" s="2">
         <v>9</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="4"/>
         <v>39.130000000000003</v>
       </c>
     </row>
@@ -3355,9 +1564,8 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(B20,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D20" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="2">
         <v>527</v>
@@ -3366,35 +1574,30 @@
         <v>23</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
         <v>4.3600000000000003</v>
       </c>
       <c r="H20" s="2">
         <v>251</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
         <v>47.63</v>
       </c>
       <c r="J20" s="2">
         <v>12</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
         <v>52.17</v>
       </c>
       <c r="L20" s="2">
         <v>276</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="3"/>
         <v>52.37</v>
       </c>
       <c r="N20" s="2">
         <v>11</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="4"/>
         <v>47.83</v>
       </c>
     </row>
@@ -3408,9 +1611,8 @@
       <c r="C21" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(B21,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D21" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="2">
         <v>837</v>
@@ -3419,35 +1621,30 @@
         <v>28</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
       <c r="H21" s="2">
         <v>392</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
         <v>46.83</v>
       </c>
       <c r="J21" s="2">
         <v>13</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
         <v>46.43</v>
       </c>
       <c r="L21" s="2">
         <v>445</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="3"/>
         <v>53.17</v>
       </c>
       <c r="N21" s="2">
         <v>15</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="4"/>
         <v>53.57</v>
       </c>
     </row>
@@ -3461,9 +1658,8 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(B22,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D22" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="2">
         <v>910</v>
@@ -3472,35 +1668,30 @@
         <v>69</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
         <v>7.58</v>
       </c>
       <c r="H22" s="2">
         <v>457</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
         <v>50.22</v>
       </c>
       <c r="J22" s="2">
         <v>30</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
         <v>43.48</v>
       </c>
       <c r="L22" s="2">
         <v>453</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="3"/>
         <v>49.78</v>
       </c>
       <c r="N22" s="2">
         <v>39</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="4"/>
         <v>56.52</v>
       </c>
     </row>
@@ -3514,9 +1705,8 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(B23,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D23" t="s">
+        <v>65</v>
       </c>
       <c r="E23" s="2">
         <v>587</v>
@@ -3525,35 +1715,30 @@
         <v>23</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
       <c r="H23" s="2">
         <v>310</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
         <v>52.81</v>
       </c>
       <c r="J23" s="2">
         <v>11</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
         <v>47.83</v>
       </c>
       <c r="L23" s="2">
         <v>277</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="3"/>
         <v>47.19</v>
       </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="4"/>
         <v>52.17</v>
       </c>
     </row>
@@ -3567,9 +1752,8 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(B24,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D24" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="2">
         <v>163</v>
@@ -3578,35 +1762,30 @@
         <v>47</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
         <v>28.83</v>
       </c>
       <c r="H24" s="2">
         <v>58</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
         <v>35.58</v>
       </c>
       <c r="J24" s="2">
         <v>16</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
         <v>34.04</v>
       </c>
       <c r="L24" s="2">
         <v>105</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="3"/>
         <v>64.42</v>
       </c>
       <c r="N24" s="2">
         <v>31</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="4"/>
         <v>65.960000000000008</v>
       </c>
     </row>
@@ -3620,9 +1799,8 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(B25,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D25" t="s">
+        <v>65</v>
       </c>
       <c r="E25" s="2">
         <v>1092</v>
@@ -3631,35 +1809,30 @@
         <v>346</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
         <v>31.68</v>
       </c>
       <c r="H25" s="2">
         <v>527</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
         <v>48.26</v>
       </c>
       <c r="J25" s="2">
         <v>164</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
         <v>47.4</v>
       </c>
       <c r="L25" s="2">
         <v>565</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="3"/>
         <v>51.74</v>
       </c>
       <c r="N25" s="2">
         <v>182</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="4"/>
         <v>52.6</v>
       </c>
     </row>
@@ -3673,9 +1846,8 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(B26,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="2">
         <v>1226</v>
@@ -3684,35 +1856,30 @@
         <v>104</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
         <v>8.48</v>
       </c>
       <c r="H26" s="2">
         <v>640</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
         <v>52.2</v>
       </c>
       <c r="J26" s="2">
         <v>56</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
         <v>53.85</v>
       </c>
       <c r="L26" s="2">
         <v>586</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
         <v>47.8</v>
       </c>
       <c r="N26" s="2">
         <v>48</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="4"/>
         <v>46.15</v>
       </c>
     </row>
@@ -3726,9 +1893,8 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(B27,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D27" t="s">
+        <v>65</v>
       </c>
       <c r="E27" s="2">
         <v>866</v>
@@ -3737,35 +1903,30 @@
         <v>102</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
         <v>11.78</v>
       </c>
       <c r="H27" s="2">
         <v>411</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
         <v>47.46</v>
       </c>
       <c r="J27" s="2">
         <v>49</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
         <v>48.04</v>
       </c>
       <c r="L27" s="2">
         <v>455</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="3"/>
         <v>52.54</v>
       </c>
       <c r="N27" s="2">
         <v>53</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="4"/>
         <v>51.96</v>
       </c>
     </row>
@@ -3779,9 +1940,8 @@
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(B28,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D28" t="s">
+        <v>65</v>
       </c>
       <c r="E28" s="2">
         <v>308</v>
@@ -3790,35 +1950,30 @@
         <v>66</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
       <c r="H28" s="2">
         <v>106</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
         <v>34.42</v>
       </c>
       <c r="J28" s="2">
         <v>30</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
         <v>45.45</v>
       </c>
       <c r="L28" s="2">
         <v>202</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="3"/>
         <v>65.58</v>
       </c>
       <c r="N28" s="2">
         <v>36</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="4"/>
         <v>54.55</v>
       </c>
     </row>
@@ -3832,9 +1987,8 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(B29,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D29" t="s">
+        <v>65</v>
       </c>
       <c r="E29" s="2">
         <v>747</v>
@@ -3843,35 +1997,30 @@
         <v>135</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
         <v>18.07</v>
       </c>
       <c r="H29" s="2">
         <v>293</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
         <v>39.22</v>
       </c>
       <c r="J29" s="2">
         <v>70</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
         <v>51.85</v>
       </c>
       <c r="L29" s="2">
         <v>454</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="3"/>
         <v>60.78</v>
       </c>
       <c r="N29" s="2">
         <v>65</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="4"/>
         <v>48.15</v>
       </c>
     </row>
@@ -3885,9 +2034,8 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(B30,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D30" t="s">
+        <v>65</v>
       </c>
       <c r="E30" s="2">
         <v>1339</v>
@@ -3896,35 +2044,30 @@
         <v>163</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
         <v>12.17</v>
       </c>
       <c r="H30" s="2">
         <v>631</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
         <v>47.12</v>
       </c>
       <c r="J30" s="2">
         <v>71</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
         <v>43.56</v>
       </c>
       <c r="L30" s="2">
         <v>708</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="3"/>
         <v>52.88</v>
       </c>
       <c r="N30" s="2">
         <v>92</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="4"/>
         <v>56.44</v>
       </c>
     </row>
@@ -3938,9 +2081,8 @@
       <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(B31,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D31" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="2">
         <v>91</v>
@@ -3949,35 +2091,30 @@
         <v>64</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
         <v>70.33</v>
       </c>
       <c r="H31" s="2">
         <v>24</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
         <v>26.37</v>
       </c>
       <c r="J31" s="2">
         <v>23</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
         <v>35.94</v>
       </c>
       <c r="L31" s="2">
         <v>67</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="3"/>
         <v>73.63</v>
       </c>
       <c r="N31" s="2">
         <v>41</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="4"/>
         <v>64.06</v>
       </c>
     </row>
@@ -3991,9 +2128,8 @@
       <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(B32,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D32" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="2">
         <v>368</v>
@@ -4002,35 +2138,30 @@
         <v>93</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
         <v>25.27</v>
       </c>
       <c r="H32" s="2">
         <v>176</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
         <v>47.83</v>
       </c>
       <c r="J32" s="2">
         <v>48</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
         <v>51.61</v>
       </c>
       <c r="L32" s="2">
         <v>192</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="3"/>
         <v>52.17</v>
       </c>
       <c r="N32" s="2">
         <v>45</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="4"/>
         <v>48.39</v>
       </c>
     </row>
@@ -4044,9 +2175,8 @@
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(B33,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D33" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="2">
         <v>446</v>
@@ -4055,35 +2185,30 @@
         <v>92</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
         <v>20.63</v>
       </c>
       <c r="H33" s="2">
         <v>205</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
         <v>45.96</v>
       </c>
       <c r="J33" s="2">
         <v>52</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
         <v>56.52</v>
       </c>
       <c r="L33" s="2">
         <v>241</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
         <v>54.04</v>
       </c>
       <c r="N33" s="2">
         <v>40</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="4"/>
         <v>43.48</v>
       </c>
     </row>
@@ -4097,9 +2222,8 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(B34,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D34" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="2">
         <v>616</v>
@@ -4108,35 +2232,30 @@
         <v>69</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="H34" s="2">
         <v>288</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="1"/>
         <v>46.75</v>
       </c>
       <c r="J34" s="2">
         <v>43</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
         <v>62.32</v>
       </c>
       <c r="L34" s="2">
         <v>328</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="3"/>
         <v>53.25</v>
       </c>
       <c r="N34" s="2">
         <v>26</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="4"/>
         <v>37.68</v>
       </c>
     </row>
@@ -4150,9 +2269,8 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(B35,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D35" t="s">
+        <v>65</v>
       </c>
       <c r="E35" s="2">
         <v>163</v>
@@ -4161,35 +2279,30 @@
         <v>73</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="0"/>
         <v>44.79</v>
       </c>
       <c r="H35" s="2">
         <v>59</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="1"/>
         <v>36.200000000000003</v>
       </c>
       <c r="J35" s="2">
         <v>30</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
         <v>41.1</v>
       </c>
       <c r="L35" s="2">
         <v>104</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="3"/>
         <v>63.8</v>
       </c>
       <c r="N35" s="2">
         <v>43</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="4"/>
         <v>58.9</v>
       </c>
     </row>
@@ -4203,9 +2316,8 @@
       <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(B36,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D36" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="2">
         <v>253</v>
@@ -4214,35 +2326,30 @@
         <v>68</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="0"/>
         <v>26.88</v>
       </c>
       <c r="H36" s="2">
         <v>86</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
         <v>33.99</v>
       </c>
       <c r="J36" s="2">
         <v>24</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
         <v>35.29</v>
       </c>
       <c r="L36" s="2">
         <v>167</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="3"/>
         <v>66.009999999999991</v>
       </c>
       <c r="N36" s="2">
         <v>44</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="4"/>
         <v>64.710000000000008</v>
       </c>
     </row>
@@ -4256,9 +2363,8 @@
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(B37,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
       <c r="E37" s="2">
         <v>202</v>
@@ -4267,35 +2373,30 @@
         <v>46</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="0"/>
         <v>22.77</v>
       </c>
       <c r="H37" s="2">
         <v>86</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="1"/>
         <v>42.57</v>
       </c>
       <c r="J37" s="2">
         <v>16</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="2"/>
         <v>34.78</v>
       </c>
       <c r="L37" s="2">
         <v>116</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="3"/>
         <v>57.43</v>
       </c>
       <c r="N37" s="2">
         <v>30</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="4"/>
         <v>65.22</v>
       </c>
     </row>
@@ -4309,9 +2410,8 @@
       <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(B38,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D38" t="s">
+        <v>65</v>
       </c>
       <c r="E38" s="2">
         <v>180</v>
@@ -4320,35 +2420,30 @@
         <v>45</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H38" s="2">
         <v>74</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
         <v>41.11</v>
       </c>
       <c r="J38" s="2">
         <v>16</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="2"/>
         <v>35.56</v>
       </c>
       <c r="L38" s="2">
         <v>106</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="3"/>
         <v>58.89</v>
       </c>
       <c r="N38" s="2">
         <v>29</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="4"/>
         <v>64.44</v>
       </c>
     </row>
@@ -4362,9 +2457,8 @@
       <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(B39,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D39" t="s">
+        <v>65</v>
       </c>
       <c r="E39" s="2">
         <v>159</v>
@@ -4373,35 +2467,30 @@
         <v>44</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
         <v>27.67</v>
       </c>
       <c r="H39" s="2">
         <v>45</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="1"/>
         <v>28.3</v>
       </c>
       <c r="J39" s="2">
         <v>14</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="2"/>
         <v>31.82</v>
       </c>
       <c r="L39" s="2">
         <v>114</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="3"/>
         <v>71.7</v>
       </c>
       <c r="N39" s="2">
         <v>30</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="4"/>
         <v>68.180000000000007</v>
       </c>
     </row>
@@ -4415,9 +2504,8 @@
       <c r="C40" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(B40,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D40" t="s">
+        <v>65</v>
       </c>
       <c r="E40" s="2">
         <v>36</v>
@@ -4426,35 +2514,30 @@
         <v>30</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="0"/>
         <v>83.33</v>
       </c>
       <c r="H40" s="2">
         <v>24</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="1"/>
         <v>66.67</v>
       </c>
       <c r="J40" s="2">
         <v>24</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="L40" s="2">
         <v>12</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="3"/>
         <v>33.33</v>
       </c>
       <c r="N40" s="2">
         <v>6</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -4468,9 +2551,8 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(B41,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D41" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="2">
         <v>508</v>
@@ -4479,35 +2561,30 @@
         <v>45</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="0"/>
         <v>8.86</v>
       </c>
       <c r="H41" s="2">
         <v>234</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="1"/>
         <v>46.06</v>
       </c>
       <c r="J41" s="2">
         <v>24</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="2"/>
         <v>53.33</v>
       </c>
       <c r="L41" s="2">
         <v>274</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="3"/>
         <v>53.94</v>
       </c>
       <c r="N41" s="2">
         <v>21</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="4"/>
         <v>46.67</v>
       </c>
     </row>
@@ -4521,9 +2598,8 @@
       <c r="C42" t="s">
         <v>36</v>
       </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(B42,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D42" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="2">
         <v>102</v>
@@ -4532,35 +2608,30 @@
         <v>45</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="0"/>
         <v>44.12</v>
       </c>
       <c r="H42" s="2">
         <v>44</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="1"/>
         <v>43.14</v>
       </c>
       <c r="J42" s="2">
         <v>26</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="2"/>
         <v>57.78</v>
       </c>
       <c r="L42" s="2">
         <v>58</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="3"/>
         <v>56.86</v>
       </c>
       <c r="N42" s="2">
         <v>19</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="4"/>
         <v>42.22</v>
       </c>
     </row>
@@ -4574,9 +2645,8 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(B43,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>S1</v>
+      <c r="D43" t="s">
+        <v>65</v>
       </c>
       <c r="E43" s="2">
         <v>625</v>
@@ -4585,35 +2655,30 @@
         <v>111</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="0"/>
         <v>17.760000000000002</v>
       </c>
       <c r="H43" s="2">
         <v>270</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
       <c r="J43" s="2">
         <v>57</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="2"/>
         <v>51.35</v>
       </c>
       <c r="L43" s="2">
         <v>355</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="3"/>
         <v>56.8</v>
       </c>
       <c r="N43" s="2">
         <v>54</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="4"/>
         <v>48.65</v>
       </c>
     </row>
@@ -4627,9 +2692,8 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(B44,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>D3</v>
+      <c r="D44" t="s">
+        <v>66</v>
       </c>
       <c r="E44">
         <v>271</v>
@@ -4638,35 +2702,30 @@
         <v>40</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="0"/>
         <v>14.76</v>
       </c>
       <c r="H44">
         <v>121</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="1"/>
         <v>44.65</v>
       </c>
       <c r="J44">
         <v>16</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L44">
         <v>150</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="3"/>
         <v>55.35</v>
       </c>
       <c r="N44">
         <v>24</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -4680,9 +2739,8 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(B45,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>D3</v>
+      <c r="D45" t="s">
+        <v>66</v>
       </c>
       <c r="E45">
         <v>66</v>
@@ -4691,35 +2749,30 @@
         <v>51</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="0"/>
         <v>77.27</v>
       </c>
       <c r="H45">
         <v>24</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="1"/>
         <v>36.36</v>
       </c>
       <c r="J45">
         <v>22</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="2"/>
         <v>43.14</v>
       </c>
       <c r="L45">
         <v>42</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="3"/>
         <v>63.64</v>
       </c>
       <c r="N45">
         <v>29</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="4"/>
         <v>56.86</v>
       </c>
     </row>
@@ -4733,9 +2786,8 @@
       <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(B46,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>D3</v>
+      <c r="D46" t="s">
+        <v>66</v>
       </c>
       <c r="E46">
         <v>99</v>
@@ -4744,35 +2796,30 @@
         <v>55</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="0"/>
         <v>55.56</v>
       </c>
       <c r="H46">
         <v>24</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="1"/>
         <v>24.24</v>
       </c>
       <c r="J46">
         <v>18</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="2"/>
         <v>32.729999999999997</v>
       </c>
       <c r="L46">
         <v>75</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="3"/>
         <v>75.760000000000005</v>
       </c>
       <c r="N46">
         <v>37</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="4"/>
         <v>67.27000000000001</v>
       </c>
     </row>
@@ -4786,9 +2833,8 @@
       <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(B47,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>D3</v>
+      <c r="D47" t="s">
+        <v>66</v>
       </c>
       <c r="E47">
         <v>88</v>
@@ -4797,35 +2843,30 @@
         <v>56</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="0"/>
         <v>63.64</v>
       </c>
       <c r="H47">
         <v>22</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J47">
         <v>14</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L47">
         <v>66</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="N47">
         <v>42</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -4837,11 +2878,10 @@
         <v>311048</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(B48,[1]PRODI_2019!$C$2:$I$78,7,FALSE)</f>
-        <v>D3</v>
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
       </c>
       <c r="E48">
         <v>141</v>
@@ -4850,35 +2890,30 @@
         <v>53</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="0"/>
         <v>37.590000000000003</v>
       </c>
       <c r="H48">
         <v>39</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="1"/>
         <v>27.66</v>
       </c>
       <c r="J48">
         <v>18</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="2"/>
         <v>33.96</v>
       </c>
       <c r="L48">
         <v>102</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="3"/>
         <v>72.34</v>
       </c>
       <c r="N48">
         <v>35</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="4"/>
         <v>66.039999999999992</v>
       </c>
     </row>
@@ -4902,35 +2937,30 @@
         <v>24</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="0"/>
         <v>23.3</v>
       </c>
       <c r="H49">
         <v>36</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="1"/>
         <v>34.950000000000003</v>
       </c>
       <c r="J49">
         <v>7</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="2"/>
         <v>29.17</v>
       </c>
       <c r="L49">
         <v>67</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="3"/>
         <v>65.05</v>
       </c>
       <c r="N49">
         <v>17</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="4"/>
         <v>70.83</v>
       </c>
     </row>
